--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
@@ -537,7 +537,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H2">
         <v>2.043375</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.301118333333333</v>
+        <v>1.123319</v>
       </c>
       <c r="N2">
-        <v>3.903354999999999</v>
+        <v>3.369957</v>
       </c>
       <c r="O2">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="P2">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="Q2">
-        <v>0.8862242247916666</v>
+        <v>0.7651206538749999</v>
       </c>
       <c r="R2">
-        <v>7.976018023125</v>
+        <v>6.886085884875</v>
       </c>
       <c r="S2">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="T2">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H3">
         <v>2.043375</v>
@@ -623,22 +623,22 @@
         <v>33.622946</v>
       </c>
       <c r="O3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="P3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
       <c r="Q3">
-        <v>7.633809698083334</v>
+        <v>7.633809698083331</v>
       </c>
       <c r="R3">
-        <v>68.70428728275</v>
+        <v>68.70428728274999</v>
       </c>
       <c r="S3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="T3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H4">
         <v>2.043375</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.043928000000001</v>
+        <v>4.958620666666667</v>
       </c>
       <c r="N4">
-        <v>18.131784</v>
+        <v>14.875862</v>
       </c>
       <c r="O4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="P4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="Q4">
-        <v>4.116670459000002</v>
+        <v>3.377440501583333</v>
       </c>
       <c r="R4">
-        <v>37.05003413100001</v>
+        <v>30.39696451425</v>
       </c>
       <c r="S4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="T4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,7 +723,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H5">
         <v>2.043375</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.84722</v>
+        <v>4.938126</v>
       </c>
       <c r="N5">
-        <v>11.54166</v>
+        <v>14.814378</v>
       </c>
       <c r="O5">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="P5">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="Q5">
-        <v>2.620437722500001</v>
+        <v>3.36348107175</v>
       </c>
       <c r="R5">
-        <v>23.5839395025</v>
+        <v>30.27132964575</v>
       </c>
       <c r="S5">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="T5">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
     </row>
   </sheetData>
